--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,15 +256,6 @@
   </x:si>
   <x:si>
     <x:t>omar mahmoud omar elsayed mohamed humam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>1240347</x:t>
@@ -584,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1775,7 +1766,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1807,7 +1798,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1839,7 +1830,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1871,7 +1862,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1903,7 +1894,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45912.0374736921</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1935,7 +1926,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.0374736921</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1967,7 +1958,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1999,7 +1990,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2031,7 +2022,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2063,7 +2054,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2092,10 +2083,10 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2118,16 +2109,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
         <x:v>113</x:v>
       </x:c>
-      <x:c r="C38" s="2" t="s">
+      <x:c r="D38" s="2" t="s">
         <x:v>114</x:v>
       </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2159,7 +2150,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2191,7 +2182,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2223,7 +2214,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2255,7 +2246,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2287,7 +2278,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2319,7 +2310,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2351,7 +2342,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2383,7 +2374,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2415,7 +2406,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2447,7 +2438,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2479,7 +2470,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2496,38 +2487,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230010</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عاطف مرعى عبد النعيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Atef Merhy Abdel Naim</x:t>
   </x:si>
   <x:si>
     <x:t>1240016</x:t>
@@ -575,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1094,7 +1085,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45912.0388648495</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1126,7 +1117,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45907.6651128125</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1158,7 +1149,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651128125</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1190,7 +1181,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.6662506134</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1222,7 +1213,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6662506134</x:v>
+        <x:v>45907.6663570255</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1254,7 +1245,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6663570255</x:v>
+        <x:v>45912.0386998843</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1286,7 +1277,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0386998843</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1318,7 +1309,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1350,7 +1341,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45907.6658058218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1382,7 +1373,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6658058218</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1414,7 +1405,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1446,7 +1437,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1478,7 +1469,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6669303241</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1510,7 +1501,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6669303241</x:v>
+        <x:v>45914.4311826389</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1542,7 +1533,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.4311826389</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1574,7 +1565,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1606,7 +1597,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45912.0384657407</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1638,7 +1629,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.0384657407</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1670,7 +1661,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1702,7 +1693,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1734,7 +1725,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45912.0374736921</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.0374736921</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2022,7 +2013,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2051,10 +2042,10 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2077,16 +2068,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="C37" s="2" t="s">
+      <x:c r="D37" s="2" t="s">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2118,7 +2109,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2150,7 +2141,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2182,7 +2173,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2214,7 +2205,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2246,7 +2237,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2278,7 +2269,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2310,7 +2301,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2342,7 +2333,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2374,7 +2365,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2406,7 +2397,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2438,7 +2429,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2455,38 +2446,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -138,7 +138,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240294</x:t>
@@ -184,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد شريف سامى محمد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ziad sherief sami</x:t>
   </x:si>
   <x:si>
     <x:t>1230331</x:t>
@@ -566,7 +557,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +857,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T47"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -875,7 +866,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1501,7 +1492,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.4311826389</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45912.0384657407</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.0384657407</x:v>
+        <x:v>45907.4155685995</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45912.0374736921</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.0374736921</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1981,7 +1972,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2010,10 +2001,10 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,16 +2027,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2077,7 +2068,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2109,7 +2100,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2141,7 +2132,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2173,7 +2164,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2205,7 +2196,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2237,7 +2228,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2269,7 +2260,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2301,7 +2292,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2333,7 +2324,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2365,7 +2356,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2397,7 +2388,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2414,38 +2405,6 @@
       <x:c r="R47" s="2" t="s"/>
       <x:c r="S47" s="2" t="s"/>
       <x:c r="T47" s="2" t="s"/>
-    </x:row>
-    <x:row r="48" spans="1:20">
-      <x:c r="A48" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B48" s="2" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="C48" s="2" t="s">
-        <x:v>143</x:v>
-      </x:c>
-      <x:c r="D48" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="E48" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F48" s="2" t="s"/>
-      <x:c r="G48" s="2" t="s"/>
-      <x:c r="H48" s="2" t="s"/>
-      <x:c r="I48" s="2" t="s"/>
-      <x:c r="J48" s="2" t="s"/>
-      <x:c r="K48" s="2" t="s"/>
-      <x:c r="L48" s="2" t="s"/>
-      <x:c r="M48" s="2" t="s"/>
-      <x:c r="N48" s="2" t="s"/>
-      <x:c r="O48" s="2" t="s"/>
-      <x:c r="P48" s="2" t="s"/>
-      <x:c r="Q48" s="2" t="s"/>
-      <x:c r="R48" s="2" t="s"/>
-      <x:c r="S48" s="2" t="s"/>
-      <x:c r="T48" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -213,15 +213,6 @@
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
   </x:si>
   <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240341</x:t>
   </x:si>
   <x:si>
@@ -415,6 +406,15 @@
   </x:si>
   <x:si>
     <x:t>Hady Abdelaal Reda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240188</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هنداوي محمد هنداوي درويش</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
   </x:si>
   <x:si>
     <x:t>1240278</x:t>
@@ -1588,7 +1588,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45907.6651002662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1620,7 +1620,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45909.4194131134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1652,7 +1652,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4194131134</x:v>
+        <x:v>45907.6649026968</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1684,7 +1684,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6649026968</x:v>
+        <x:v>45907.6651923611</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1716,7 +1716,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45907.6647313657</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1748,7 +1748,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6647313657</x:v>
+        <x:v>45914.5104364583</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1780,7 +1780,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.5104364583</x:v>
+        <x:v>45912.0374736921</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1812,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.0374736921</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1844,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1876,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1908,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1940,7 +1940,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1969,10 +1969,10 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1995,16 +1995,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2036,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2068,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2100,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2132,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2164,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2196,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2228,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2260,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2292,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45927.4604842245</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -336,15 +336,6 @@
     <x:t>Mahmoud Tamer Mohammed Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود حماده حليم صالح الحوت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Hamada Halim Saleh Elhout</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200264</x:t>
   </x:si>
   <x:si>
@@ -415,6 +406,15 @@
   </x:si>
   <x:si>
     <x:t>Hendawy Mohamed Hendawy Darwish</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوساب يوسف اسحق برسوم حنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssab Youssef</x:t>
   </x:si>
   <x:si>
     <x:t>1240278</x:t>
@@ -2036,7 +2036,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2068,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2100,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2132,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2164,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2196,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2228,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2260,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45927.4604842245</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2292,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.4604842245</x:v>
+        <x:v>45927.7000391551</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,15 +265,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed Maher</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240258</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد محمد ابراهيم عمران</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ahmed Mohamed Ibrahim Omran</x:t>
   </x:si>
   <x:si>
     <x:t>1240132</x:t>
@@ -557,7 +548,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E47" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -857,7 +848,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T47"/>
+  <x:dimension ref="A1:T46"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1780,7 +1771,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.0374736921</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45914.4043956366</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.4043956366</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6650885764</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1937,10 +1928,10 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6650885764</x:v>
+        <x:v>45912.0386217593</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1963,16 +1954,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.0386217593</x:v>
+        <x:v>45912.0385012731</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2004,7 +1995,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.0385012731</x:v>
+        <x:v>45906.6664649306</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2036,7 +2027,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45907.666199456</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2068,7 +2059,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.666199456</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2100,7 +2091,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45916.6151800579</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2132,7 +2123,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45916.6151800579</x:v>
+        <x:v>45912.0387656597</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2164,7 +2155,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45912.0387656597</x:v>
+        <x:v>45912.0371449884</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2196,7 +2187,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45912.0371449884</x:v>
+        <x:v>45907.6658238773</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2228,7 +2219,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6658238773</x:v>
+        <x:v>45927.4604842245</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2260,7 +2251,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45927.4604842245</x:v>
+        <x:v>45927.7000391551</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2292,7 +2283,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45927.7000391551</x:v>
+        <x:v>45907.6654652431</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2324,7 +2315,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6654652431</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2356,7 +2347,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2373,38 +2364,6 @@
       <x:c r="R46" s="2" t="s"/>
       <x:c r="S46" s="2" t="s"/>
       <x:c r="T46" s="2" t="s"/>
-    </x:row>
-    <x:row r="47" spans="1:20">
-      <x:c r="A47" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="C47" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="D47" s="2" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="E47" s="3">
-        <x:v>45907.6655123843</x:v>
-      </x:c>
-      <x:c r="F47" s="2" t="s"/>
-      <x:c r="G47" s="2" t="s"/>
-      <x:c r="H47" s="2" t="s"/>
-      <x:c r="I47" s="2" t="s"/>
-      <x:c r="J47" s="2" t="s"/>
-      <x:c r="K47" s="2" t="s"/>
-      <x:c r="L47" s="2" t="s"/>
-      <x:c r="M47" s="2" t="s"/>
-      <x:c r="N47" s="2" t="s"/>
-      <x:c r="O47" s="2" t="s"/>
-      <x:c r="P47" s="2" t="s"/>
-      <x:c r="Q47" s="2" t="s"/>
-      <x:c r="R47" s="2" t="s"/>
-      <x:c r="S47" s="2" t="s"/>
-      <x:c r="T47" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS217_Lecture-35478.xlsx
+++ b/downloaded_files/MDPS217_Lecture-35478.xlsx
@@ -2370,11 +2370,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:18)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:17)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:18)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:17)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:18)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Machine Drawing (MDPS217) Location : [14300]14300-60-الجيزة الرئيسي Time : Sunday(16:17)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">
